--- a/참고문서/packetData1.xlsx
+++ b/참고문서/packetData1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ChattingServer\참고문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9585DF23-BA41-46F4-AE45-F7105D8DF733}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F7AEA872-CA2A-45F4-AC97-12D87206AFBB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" firstSheet="1" activeTab="1" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
   </bookViews>
   <sheets>
     <sheet name="packetData" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="packetHeader" sheetId="3" r:id="rId3"/>
     <sheet name="packetFactory" sheetId="4" r:id="rId4"/>
     <sheet name="clientPacketClass" sheetId="5" r:id="rId5"/>
-    <sheet name="clientPacketHeader" sheetId="6" r:id="rId6"/>
-    <sheet name="clientPacketFactory" sheetId="7" r:id="rId7"/>
+    <sheet name="clientPacketFactory" sheetId="7" r:id="rId6"/>
+    <sheet name="clientPacketHeader" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="100">
   <si>
     <t>PK_NONE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -313,52 +313,6 @@
   </si>
   <si>
     <t>}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        MemoryStream PacketInterface.GetStream()
-        {
-            return packet;
-        }
-    }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    void PacketInterface.Encode()
-        {
-            PacketUtil.EncodeHeader(packet, this.Type());</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            PacketUtil.Encode(packet, {0});</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    void PacketInterface.Decode(byte[] packet, ref int offset)
-        { </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        {0} = CPacketUtil.Decode{1}(packet, ref offset);</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>using System;
-using System.Collections.Generic;
-using System.Linq;
-using System.Text;
-using System.Threading.Tasks;
-using System.Data;
-using System.IO;
-namespace DummyClient
-{</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    public class PK_{0} : CPacketData, IPacketInterface
-    {{
-        Int32 PacketInterface.Type() {{ return (Int32) PacketType.E_{0}; }}
-        Int32 Type() {{ return (Int32) PacketType.E_{0}; }}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -379,46 +333,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>using System;
-using System.Collections.Generic;
-using System.Linq;
-using System.Text;
-using System.Threading.Tasks;
-using System.Data;
-using System.IO;
-namespace ClientNetwork
-{
-    public static class PacketFactory
-    {
-        public static PacketInterface GetPacket(Int32 packetType) 
-        {
-            switch ((E_PACKET_TYPE)packetType)
-            {</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">                case E_PACKET_TYPE.E_{0}:    return new {0}();</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>using System;
-using System.Collections.Generic;
-using System.Linq;
-using System.Text;
-using System.Threading.Tasks;
-using System.Data;
-using System.IO;
-namespace ClientNetwork
-{{
-    static class PacketMakeDate
-    {{
-        static public string Stamp()
-        {{
-            return "{0}";
-        }}
-    }}
-    enum PacketType : long 
-    {{</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -521,6 +436,93 @@
   </si>
   <si>
     <t xml:space="preserve">                recvStream.read(&amp;{0});</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            {0} = CPacketUtil.Decode{1}(packet, ref offset);</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>using System;
+using System.IO;
+using System.Collections;
+using System.Collections.Generic;
+using UnityEngine;
+namespace ClientNetwork
+{{
+    static class PacketMakeDate
+    {{
+        static public string Stamp()
+        {{
+            return "{0}";
+        }}
+    }}
+    enum E_PACKET_TYPE : long 
+    {{</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>using System;
+using System.IO;
+using System.Collections;
+using System.Collections.Generic;
+using UnityEngine;
+namespace ClientNetwork
+{</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public class {0} : CPacket, IPacketInterface
+    {{
+        Int32 IPacketInterface.Type() {{ return (Int32) E_PACKET_TYPE.E_{0}; }}
+        Int32 Type() {{ return (Int32) E_PACKET_TYPE.E_{0}; }}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        MemoryStream IPacketInterface.GetStream()
+        {
+            return packet;
+        }
+    }</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        void IPacketInterface.Decode(byte[] packet, ref int offset)
+        { </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        void IPacketInterface.Encode()
+        {
+            CPacketUtil.EncodeHeader(packet, this.Type());</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            CPacketUtil.Encode(packet, {0});</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>using System;
+using System.IO;
+using System.Collections;
+using System.Collections.Generic;
+using UnityEngine;
+namespace ClientNetwork
+{
+    public static class CPacketFactory
+    {
+        public static IPacketInterface GetPacket(Int32 packetType) 
+        {
+            switch ((E_PACKET_TYPE)packetType)
+            {</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_REQ_WAITINGCHANNAL_ENTER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_CHANNAL_OUT_ANNOUNCE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1001,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71FCBB0-49A2-4914-BDE8-8730A365A6AA}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1131,389 +1133,383 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
+      <c r="A9" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -1521,34 +1517,56 @@
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K30" s="1" t="s">
+      <c r="J32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M30" s="1" t="s">
+      <c r="L32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1562,7 +1580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55FBCE9-7B35-45B4-B834-B519976B45C1}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1585,7 +1603,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1593,7 +1611,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -1601,7 +1619,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
@@ -1609,7 +1627,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1617,7 +1635,7 @@
         <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1625,7 +1643,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1633,7 +1651,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1688,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1678,7 +1696,7 @@
         <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
@@ -1686,7 +1704,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1740,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1730,7 +1748,7 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="99" x14ac:dyDescent="0.3">
@@ -1738,7 +1756,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1752,13 +1770,14 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="55.625" customWidth="1"/>
+    <col min="2" max="2" width="61.5" customWidth="1"/>
+    <col min="3" max="3" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1769,12 +1788,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="54" x14ac:dyDescent="0.25">
@@ -1782,7 +1801,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
@@ -1790,7 +1809,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
@@ -1798,7 +1817,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,7 +1825,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.25">
@@ -1814,7 +1833,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1822,7 +1841,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,62 +1855,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEE286E-C613-4E38-B9DA-C040CDA49AF1}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6837479-74F9-41C1-995E-CE95439A4564}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1913,12 +1881,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="216" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="189" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,7 +1894,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
@@ -1934,7 +1902,59 @@
         <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEE286E-C613-4E38-B9DA-C040CDA49AF1}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/참고문서/packetData1.xlsx
+++ b/참고문서/packetData1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ChattingServer\참고문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F7AEA872-CA2A-45F4-AC97-12D87206AFBB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA5EB1C6-1064-4140-AEC5-9C59A7771664}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="101">
   <si>
     <t>PK_NONE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -523,6 +523,10 @@
   </si>
   <si>
     <t>PK_RECV_CHANNAL_OUT_ANNOUNCE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_I_NOTIFY_TERMINAL</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1003,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71FCBB0-49A2-4914-BDE8-8730A365A6AA}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1568,6 +1572,11 @@
       </c>
       <c r="M32" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/참고문서/packetData1.xlsx
+++ b/참고문서/packetData1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ChattingServer\참고문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA5EB1C6-1064-4140-AEC5-9C59A7771664}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC49343-03C9-4B4C-B4D4-7A23EA2B1411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="112">
   <si>
     <t>PK_NONE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -527,6 +527,50 @@
   </si>
   <si>
     <t>PK_I_NOTIFY_TERMINAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_I_DB_REQ_ID_PW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UInt64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_I_DB_ANS_ID_PW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UInt64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oioAccountID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +733,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71FCBB0-49A2-4914-BDE8-8730A365A6AA}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1574,14 +1621,61 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
